--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C7C23A-A6F4-4BBA-9064-4D78F41150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4296BF-761B-4FC0-81D8-819C6B4C6F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="2040" windowWidth="17280" windowHeight="10500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="2040" windowWidth="17280" windowHeight="10500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KNH" sheetId="1" r:id="rId1"/>
-    <sheet name="KNH-summary" sheetId="11" r:id="rId2"/>
-    <sheet name="KNH-candida" sheetId="12" r:id="rId3"/>
-    <sheet name="Totals" sheetId="10" r:id="rId4"/>
+    <sheet name="Totals" sheetId="10" r:id="rId1"/>
+    <sheet name="KNH" sheetId="1" r:id="rId2"/>
+    <sheet name="KNH-summary" sheetId="11" r:id="rId3"/>
+    <sheet name="KNH-candida" sheetId="12" r:id="rId4"/>
     <sheet name="TNH" sheetId="2" r:id="rId5"/>
-    <sheet name="CGTRH" sheetId="3" r:id="rId6"/>
-    <sheet name="JOOTRH" sheetId="4" r:id="rId7"/>
-    <sheet name="Machakos level 5" sheetId="5" r:id="rId8"/>
-    <sheet name="MPShah" sheetId="6" r:id="rId9"/>
-    <sheet name="KUTRRH" sheetId="7" r:id="rId10"/>
-    <sheet name="AKUH" sheetId="8" r:id="rId11"/>
-    <sheet name="CVC tips" sheetId="9" r:id="rId12"/>
+    <sheet name="TNH-summary" sheetId="13" r:id="rId6"/>
+    <sheet name="TNH-candida" sheetId="14" r:id="rId7"/>
+    <sheet name="CGTRH" sheetId="3" r:id="rId8"/>
+    <sheet name="JOOTRH" sheetId="4" r:id="rId9"/>
+    <sheet name="Machakos level 5" sheetId="5" r:id="rId10"/>
+    <sheet name="MPShah" sheetId="6" r:id="rId11"/>
+    <sheet name="KUTRRH" sheetId="7" r:id="rId12"/>
+    <sheet name="AKUH" sheetId="8" r:id="rId13"/>
+    <sheet name="CVC tips" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="231">
   <si>
     <t>Month</t>
   </si>
@@ -1274,6 +1276,918 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C333F6-233F-4794-AC4C-2CDB93138D57}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="18" max="18" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
+    <col min="13" max="13" width="60.109375" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13">
+        <v>10485310</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="62">
+        <v>45566</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="62">
+        <v>45597</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="62">
+        <v>45330</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10554075</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="61">
+        <v>45394</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="62.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="13">
+        <v>62</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="61">
+        <v>45355</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="61">
+        <v>45359</v>
+      </c>
+      <c r="K2" s="61">
+        <v>45364</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>24043818</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1000041524</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="13">
+        <v>4</v>
+      </c>
+      <c r="I2" s="61">
+        <v>45328</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="61">
+        <v>45350</v>
+      </c>
+      <c r="L2" s="61">
+        <v>45353</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="61">
+        <v>45411</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="61">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1000762907</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61">
+        <v>45302</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="61">
+        <v>45351</v>
+      </c>
+      <c r="L3" s="61">
+        <v>45353</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="61">
+        <v>45411</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="61">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10212423</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5</v>
+      </c>
+      <c r="I4" s="61">
+        <v>45333</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="61">
+        <v>45343</v>
+      </c>
+      <c r="L4" s="61">
+        <v>45346</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>45415</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="61">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="13">
+        <v>10354355</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="13">
+        <v>6</v>
+      </c>
+      <c r="I5" s="61">
+        <v>45304</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="61">
+        <v>45336</v>
+      </c>
+      <c r="L5" s="61">
+        <v>45339</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>45415</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="61">
+        <v>45341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5696,572 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="62.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="13">
-        <v>62</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="61">
-        <v>45355</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="61">
-        <v>45359</v>
-      </c>
-      <c r="K2" s="61">
-        <v>45364</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>24043818</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AB5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1000041524</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="13">
-        <v>4</v>
-      </c>
-      <c r="I2" s="61">
-        <v>45328</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="61">
-        <v>45350</v>
-      </c>
-      <c r="L2" s="61">
-        <v>45353</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="61">
-        <v>45411</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="61">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1000762907</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="61">
-        <v>45302</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="61">
-        <v>45351</v>
-      </c>
-      <c r="L3" s="61">
-        <v>45353</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q3" s="61">
-        <v>45411</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="61">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="13">
-        <v>10212423</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="13">
-        <v>5</v>
-      </c>
-      <c r="I4" s="61">
-        <v>45333</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="61">
-        <v>45343</v>
-      </c>
-      <c r="L4" s="61">
-        <v>45346</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="61">
-        <v>45415</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="61">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10354355</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="13">
-        <v>6</v>
-      </c>
-      <c r="I5" s="61">
-        <v>45304</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="61">
-        <v>45336</v>
-      </c>
-      <c r="L5" s="61">
-        <v>45339</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="61">
-        <v>45415</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="61">
-        <v>45341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="W1:AB1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6E28F-FC04-49B2-83C9-1E88376F113E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6445,12 +6794,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E6D978-5361-455B-9648-CC9751D4AA66}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6497,75 +6846,6 @@
       </c>
       <c r="B5">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C333F6-233F-4794-AC4C-2CDB93138D57}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -16590,6 +16870,247 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541746E-CC5A-4B4A-9CCB-391BD8B560C2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>92</v>
+      </c>
+      <c r="G3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70568F-8036-4DFA-BB63-2ECD11B5985F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16669,7 +17190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16772,282 +17293,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="18" max="18" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" customWidth="1"/>
-    <col min="13" max="13" width="60.109375" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="13">
-        <v>10485310</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="62">
-        <v>45566</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="62">
-        <v>45597</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="62">
-        <v>45330</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="13">
-        <v>10554075</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="61">
-        <v>45394</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4296BF-761B-4FC0-81D8-819C6B4C6F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7970A0-1C34-462B-A58E-086527521C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="2040" windowWidth="17280" windowHeight="10500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
-    <sheet name="KNH" sheetId="1" r:id="rId2"/>
-    <sheet name="KNH-summary" sheetId="11" r:id="rId3"/>
-    <sheet name="KNH-candida" sheetId="12" r:id="rId4"/>
-    <sheet name="TNH" sheetId="2" r:id="rId5"/>
-    <sheet name="TNH-summary" sheetId="13" r:id="rId6"/>
-    <sheet name="TNH-candida" sheetId="14" r:id="rId7"/>
-    <sheet name="CGTRH" sheetId="3" r:id="rId8"/>
-    <sheet name="JOOTRH" sheetId="4" r:id="rId9"/>
-    <sheet name="Machakos level 5" sheetId="5" r:id="rId10"/>
-    <sheet name="MPShah" sheetId="6" r:id="rId11"/>
-    <sheet name="KUTRRH" sheetId="7" r:id="rId12"/>
-    <sheet name="AKUH" sheetId="8" r:id="rId13"/>
-    <sheet name="CVC tips" sheetId="9" r:id="rId14"/>
+    <sheet name="Today" sheetId="15" r:id="rId2"/>
+    <sheet name="KNH" sheetId="1" r:id="rId3"/>
+    <sheet name="KNH-summary" sheetId="11" r:id="rId4"/>
+    <sheet name="KNH-candida" sheetId="12" r:id="rId5"/>
+    <sheet name="TNH" sheetId="2" r:id="rId6"/>
+    <sheet name="TNH-summary" sheetId="13" r:id="rId7"/>
+    <sheet name="TNH-candida" sheetId="14" r:id="rId8"/>
+    <sheet name="CGTRH" sheetId="3" r:id="rId9"/>
+    <sheet name="JOOTRH" sheetId="4" r:id="rId10"/>
+    <sheet name="Machakos level 5" sheetId="5" r:id="rId11"/>
+    <sheet name="MPShah" sheetId="6" r:id="rId12"/>
+    <sheet name="KUTRRH" sheetId="7" r:id="rId13"/>
+    <sheet name="AKUH" sheetId="8" r:id="rId14"/>
+    <sheet name="CVC tips" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="235">
   <si>
     <t>Month</t>
   </si>
@@ -726,6 +727,18 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>JOOTRH</t>
+  </si>
+  <si>
+    <t>CGTRH</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -1345,6 +1358,111 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="61">
+        <v>45425</v>
+      </c>
+      <c r="J2" s="61">
+        <v>45434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1422,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1622,7 +1740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1770,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1850,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2188,6 +2306,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6610,7 +6823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6E28F-FC04-49B2-83C9-1E88376F113E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6794,7 +7007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E6D978-5361-455B-9648-CC9751D4AA66}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6853,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16869,11 +17082,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541746E-CC5A-4B4A-9CCB-391BD8B560C2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -17051,7 +17264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70568F-8036-4DFA-BB63-2ECD11B5985F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -17110,7 +17323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17188,109 +17401,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="61">
-        <v>45425</v>
-      </c>
-      <c r="J2" s="61">
-        <v>45434</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7970A0-1C34-462B-A58E-086527521C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127978A-D8D3-477C-8A81-B864003D93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
@@ -19,22 +19,27 @@
     <sheet name="KNH-summary" sheetId="11" r:id="rId4"/>
     <sheet name="KNH-candida" sheetId="12" r:id="rId5"/>
     <sheet name="TNH" sheetId="2" r:id="rId6"/>
-    <sheet name="TNH-summary" sheetId="13" r:id="rId7"/>
-    <sheet name="TNH-candida" sheetId="14" r:id="rId8"/>
+    <sheet name="TNH-candida" sheetId="14" r:id="rId7"/>
+    <sheet name="TNH-summary" sheetId="13" r:id="rId8"/>
     <sheet name="CGTRH" sheetId="3" r:id="rId9"/>
-    <sheet name="JOOTRH" sheetId="4" r:id="rId10"/>
-    <sheet name="Machakos level 5" sheetId="5" r:id="rId11"/>
-    <sheet name="MPShah" sheetId="6" r:id="rId12"/>
-    <sheet name="KUTRRH" sheetId="7" r:id="rId13"/>
-    <sheet name="AKUH" sheetId="8" r:id="rId14"/>
-    <sheet name="CVC tips" sheetId="9" r:id="rId15"/>
+    <sheet name="CGTRH-summary" sheetId="20" r:id="rId10"/>
+    <sheet name="JOOTRH" sheetId="4" r:id="rId11"/>
+    <sheet name="JOOTRH-summary" sheetId="19" r:id="rId12"/>
+    <sheet name="Machakos level 5" sheetId="5" r:id="rId13"/>
+    <sheet name="Machakos-summary" sheetId="18" r:id="rId14"/>
+    <sheet name="MPShah" sheetId="6" r:id="rId15"/>
+    <sheet name="MP-SHAH-summary" sheetId="16" r:id="rId16"/>
+    <sheet name="MP-SHAH-candida" sheetId="17" r:id="rId17"/>
+    <sheet name="KUTRRH" sheetId="7" r:id="rId18"/>
+    <sheet name="AKUH" sheetId="8" r:id="rId19"/>
+    <sheet name="CVC tips" sheetId="9" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="236">
   <si>
     <t>Month</t>
   </si>
@@ -739,6 +744,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -1358,6 +1366,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32250821-505C-4CAC-A2E7-97C70CE2EB44}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1462,7 +1567,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D20E43D-D167-4AC0-98E5-A79F2B7437B1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1540,7 +1742,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3504ACFA-2AA2-4D5A-8D63-40F24A3E56CA}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1740,7 +2039,207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F1F51-CED4-41F2-82CD-A602113284D3}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C94C8D9-CF31-406E-BCF2-7FF494C71C7A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1888,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1968,7 +2467,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2301,101 +2895,6 @@
   <mergeCells count="1">
     <mergeCell ref="W1:AB1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17083,6 +17582,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70568F-8036-4DFA-BB63-2ECD11B5985F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541746E-CC5A-4B4A-9CCB-391BD8B560C2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -17257,65 +17815,6 @@
       </c>
       <c r="G7">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70568F-8036-4DFA-BB63-2ECD11B5985F}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127978A-D8D3-477C-8A81-B864003D93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81781CF9-FF3F-4AEB-8460-2DF0FAC766B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="235">
   <si>
     <t>Month</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>20/02/2024</t>
-  </si>
-  <si>
-    <t>candida parapsilosis</t>
   </si>
   <si>
     <t>Amphotericin B,Caspofungin,Micafungin,Flucytosine</t>
@@ -1306,15 +1303,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1338,7 +1335,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6">
         <v>54</v>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -1369,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32250821-505C-4CAC-A2E7-97C70CE2EB44}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1382,10 +1379,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -1404,7 +1401,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1448,7 +1445,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1544,16 +1541,16 @@
         <v>73</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="61">
         <v>45425</v>
@@ -1584,10 +1581,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>58</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1628,7 +1625,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1759,10 +1756,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1781,7 +1778,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1846,7 +1843,9 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1921,13 +1920,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>21</v>
@@ -1936,22 +1935,22 @@
         <v>10485310</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="62">
         <v>45566</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="62">
         <v>45597</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>36</v>
@@ -1969,24 +1968,24 @@
         <v>45330</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>21</v>
@@ -1998,40 +1997,40 @@
         <v>86</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="J3" s="61">
         <v>45394</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2058,16 +2057,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
         <v>73</v>
@@ -2075,7 +2074,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2092,7 +2091,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2109,7 +2108,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2126,7 +2125,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2143,7 +2142,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2160,7 +2159,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2196,10 +2195,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
         <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2325,10 +2324,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="13">
         <v>62</v>
@@ -2337,19 +2336,19 @@
         <v>102</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="H2" s="61">
         <v>45355</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="61">
         <v>45359</v>
@@ -2370,7 +2369,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="13">
         <v>24043818</v>
@@ -2379,7 +2378,7 @@
         <v>42</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -2482,18 +2481,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2504,7 +2503,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -2515,7 +2514,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -2526,7 +2525,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2537,7 +2536,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -2548,7 +2547,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -2587,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2657,16 +2656,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>85</v>
@@ -2684,7 +2683,7 @@
         <v>45328</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K2" s="61">
         <v>45350</v>
@@ -2696,13 +2695,13 @@
         <v>25</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="61">
         <v>45411</v>
@@ -2716,16 +2715,16 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>85</v>
@@ -2734,7 +2733,7 @@
         <v>1000762907</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -2743,7 +2742,7 @@
         <v>45302</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="61">
         <v>45351</v>
@@ -2752,16 +2751,16 @@
         <v>45353</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q3" s="61">
         <v>45411</v>
@@ -2775,16 +2774,16 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>85</v>
@@ -2811,16 +2810,16 @@
         <v>45346</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="Q4" s="61">
         <v>45415</v>
@@ -2834,16 +2833,16 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>102</v>
@@ -2873,13 +2872,13 @@
         <v>69</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="61">
         <v>45415</v>
@@ -2906,19 +2905,22 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="59.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="17.21875" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" customWidth="1"/>
@@ -7342,22 +7344,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>218</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>220</v>
-      </c>
-      <c r="F1" t="s">
-        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
@@ -7365,7 +7367,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7388,7 +7390,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7411,7 +7413,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7434,7 +7436,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7457,7 +7459,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7480,7 +7482,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -7522,10 +7524,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
         <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7572,7 +7574,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7628,7 +7632,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
@@ -8089,7 +8093,7 @@
         <v>45414</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>26</v>
@@ -8156,10 +8160,10 @@
         <v>130</v>
       </c>
       <c r="L10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>132</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>28</v>
@@ -8205,7 +8209,7 @@
         <v>85</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>86</v>
@@ -8220,16 +8224,16 @@
         <v>87</v>
       </c>
       <c r="J11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="L11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="35" t="s">
         <v>135</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>136</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>28</v>
@@ -8275,7 +8279,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>86</v>
@@ -8290,7 +8294,7 @@
         <v>87</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" s="43">
         <v>45446</v>
@@ -8299,13 +8303,13 @@
         <v>69</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>28</v>
       </c>
       <c r="O12" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P12" s="43">
         <v>45411</v>
@@ -8336,7 +8340,7 @@
     <row r="13" spans="1:32" ht="13.2">
       <c r="A13" s="44"/>
       <c r="B13" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="44">
         <v>76</v>
@@ -8354,22 +8358,22 @@
         <v>8</v>
       </c>
       <c r="H13" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="J13" s="46" t="s">
         <v>143</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>144</v>
       </c>
       <c r="K13" s="47">
         <v>45385</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N13" s="44" t="s">
         <v>28</v>
@@ -8405,10 +8409,10 @@
     </row>
     <row r="14" spans="1:32" ht="13.2">
       <c r="A14" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="50">
         <v>76</v>
@@ -8417,7 +8421,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>86</v>
@@ -8426,10 +8430,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>142</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>143</v>
       </c>
       <c r="J14" s="52">
         <v>45415</v>
@@ -8437,17 +8441,17 @@
       <c r="K14" s="38">
         <v>45476</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>131</v>
+      <c r="L14" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N14" s="49" t="s">
         <v>28</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" s="43">
         <v>45411</v>
@@ -8477,10 +8481,10 @@
     </row>
     <row r="15" spans="1:32" ht="13.2">
       <c r="A15" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="C15" s="29">
         <v>27</v>
@@ -8489,7 +8493,7 @@
         <v>85</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>86</v>
@@ -8501,7 +8505,7 @@
         <v>45599</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="34">
         <v>45295</v>
@@ -8510,10 +8514,10 @@
         <v>45355</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>28</v>
@@ -8550,7 +8554,7 @@
     <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="35">
         <v>27</v>
@@ -8559,7 +8563,7 @@
         <v>85</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>86</v>
@@ -8571,7 +8575,7 @@
         <v>45599</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J16" s="39">
         <v>45326</v>
@@ -8579,11 +8583,11 @@
       <c r="K16" s="54">
         <v>45416</v>
       </c>
-      <c r="L16" s="49" t="s">
-        <v>131</v>
+      <c r="L16" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" s="49" t="s">
         <v>28</v>
@@ -8619,7 +8623,7 @@
     </row>
     <row r="17" spans="1:32" ht="13.2">
       <c r="B17" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="13">
         <v>48</v>
@@ -8628,7 +8632,7 @@
         <v>85</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>86</v>
@@ -8643,16 +8647,16 @@
         <v>87</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>132</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>28</v>
@@ -8669,7 +8673,7 @@
     <row r="18" spans="1:32" ht="13.2">
       <c r="A18" s="35"/>
       <c r="B18" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="35">
         <v>48</v>
@@ -8678,7 +8682,7 @@
         <v>85</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>86</v>
@@ -8693,16 +8697,16 @@
         <v>87</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="N18" s="35" t="s">
         <v>28</v>
@@ -17597,10 +17601,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
         <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17658,22 +17662,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>218</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>220</v>
-      </c>
-      <c r="F1" t="s">
-        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
@@ -17681,7 +17685,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17704,7 +17708,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -17727,7 +17731,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -17750,7 +17754,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -17773,7 +17777,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -17796,7 +17800,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>7</v>

--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81781CF9-FF3F-4AEB-8460-2DF0FAC766B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFBAA94-81F1-42FB-A69A-2FF22A9FD584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2604" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="239">
   <si>
     <t>Month</t>
   </si>
@@ -668,15 +668,9 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Numbers</t>
-  </si>
-  <si>
     <t>KNH</t>
   </si>
   <si>
-    <t>JooTRH</t>
-  </si>
-  <si>
     <t>Coast General</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>MP-SHAH</t>
   </si>
   <si>
-    <t>KUTTRH</t>
-  </si>
-  <si>
     <t>Oct to Dec</t>
   </si>
   <si>
@@ -744,6 +735,27 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Screened_patients</t>
+  </si>
+  <si>
+    <t>Candida_isolated</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t> 36.81197</t>
+  </si>
+  <si>
+    <t>MPSHAH</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -822,6 +834,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -908,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1071,6 +1098,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,70 +1324,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C333F6-233F-4794-AC4C-2CDB93138D57}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>-1.30054</v>
+      </c>
+      <c r="E2">
+        <v>36.806950000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>-1.2964500000000001</v>
+      </c>
+      <c r="E3">
+        <v>36.804360000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>-8.8639999999999997E-2</v>
+      </c>
+      <c r="E4">
+        <v>34.7714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>-1.5237000000000001</v>
+      </c>
+      <c r="E5">
+        <v>37.266280000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>-4.0486000000000004</v>
+      </c>
+      <c r="E6">
+        <v>39.674709999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7">
-        <v>67</v>
-      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>-1.2637799999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="64"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="64"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="64"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="65"/>
+      <c r="B20" s="64"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1379,10 +1502,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1390,7 +1513,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -1401,7 +1524,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -1412,7 +1535,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -1423,7 +1546,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1434,7 +1557,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1445,7 +1568,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1581,10 +1704,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1592,7 +1715,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>58</v>
@@ -1603,7 +1726,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -1614,7 +1737,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1625,7 +1748,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1636,7 +1759,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1647,7 +1770,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1756,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -1767,7 +1890,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1778,7 +1901,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1789,7 +1912,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1800,7 +1923,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1811,7 +1934,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1822,7 +1945,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1843,8 +1966,8 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2057,16 +2180,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
         <v>73</v>
@@ -2074,7 +2197,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2091,7 +2214,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2108,7 +2231,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2125,7 +2248,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2142,7 +2265,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2159,7 +2282,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2195,10 +2318,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2484,15 +2607,15 @@
         <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2514,7 +2637,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -2525,7 +2648,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2536,7 +2659,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -2547,7 +2670,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -2647,12 +2770,12 @@
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="13" t="s">
@@ -2964,15 +3087,15 @@
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3014,7 +3137,7 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="65"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3171,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="65"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
@@ -3082,7 +3205,7 @@
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="65"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
@@ -3116,7 +3239,7 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="65"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
@@ -3150,7 +3273,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3186,7 +3309,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="65"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="13" t="s">
         <v>56</v>
       </c>
@@ -3256,7 +3379,7 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3292,7 +3415,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="65"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
@@ -7344,22 +7467,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" t="s">
-        <v>220</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
@@ -7367,7 +7490,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7390,7 +7513,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7413,7 +7536,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7436,7 +7559,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7459,7 +7582,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7482,7 +7605,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -7524,10 +7647,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7654,7 +7777,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="13.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7713,7 +7836,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="13.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="13" t="s">
         <v>93</v>
       </c>
@@ -7770,7 +7893,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="13.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -7829,7 +7952,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="13" t="s">
         <v>108</v>
       </c>
@@ -7886,7 +8009,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="13.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13" t="s">
         <v>112</v>
       </c>
@@ -7943,7 +8066,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="13.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -8002,7 +8125,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="13.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="13" t="s">
         <v>116</v>
       </c>
@@ -8059,7 +8182,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="13.2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="70" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -8128,7 +8251,7 @@
       <c r="AC9" s="23"/>
     </row>
     <row r="10" spans="1:32" ht="13.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="29" t="s">
         <v>126</v>
       </c>
@@ -8198,7 +8321,7 @@
       <c r="AF10" s="29"/>
     </row>
     <row r="11" spans="1:32" ht="13.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="35" t="s">
         <v>126</v>
       </c>
@@ -8268,7 +8391,7 @@
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32" ht="13.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="40" t="s">
         <v>126</v>
       </c>
@@ -17601,10 +17724,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17662,22 +17785,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" t="s">
-        <v>220</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
@@ -17685,7 +17808,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17708,7 +17831,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -17731,7 +17854,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -17754,7 +17877,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -17777,7 +17900,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -17800,7 +17923,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>7</v>

--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21A308-CF0B-4CEF-A7B0-19540FE315FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2699AD37-D75D-4E44-A6D6-4E08EBF885EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35040" yWindow="2580" windowWidth="17280" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
     <sheet name="Today" sheetId="15" r:id="rId2"/>
-    <sheet name="KNH" sheetId="1" r:id="rId3"/>
-    <sheet name="KNH-summary" sheetId="11" r:id="rId4"/>
-    <sheet name="KNH-candida" sheetId="12" r:id="rId5"/>
-    <sheet name="TNH" sheetId="2" r:id="rId6"/>
-    <sheet name="TNH-candida" sheetId="14" r:id="rId7"/>
-    <sheet name="TNH-summary" sheetId="13" r:id="rId8"/>
-    <sheet name="CGTRH" sheetId="3" r:id="rId9"/>
-    <sheet name="CGTRH-summary" sheetId="20" r:id="rId10"/>
-    <sheet name="JOOTRH" sheetId="4" r:id="rId11"/>
-    <sheet name="JOOTRH-summary" sheetId="19" r:id="rId12"/>
-    <sheet name="Machakos level 5" sheetId="5" r:id="rId13"/>
-    <sheet name="Machakos-summary" sheetId="18" r:id="rId14"/>
-    <sheet name="MPShah" sheetId="6" r:id="rId15"/>
-    <sheet name="MP-SHAH-summary" sheetId="16" r:id="rId16"/>
-    <sheet name="MP-SHAH-candida" sheetId="17" r:id="rId17"/>
-    <sheet name="KUTRRH" sheetId="7" r:id="rId18"/>
-    <sheet name="AKUH" sheetId="8" r:id="rId19"/>
-    <sheet name="CVC-TIPS" sheetId="9" r:id="rId20"/>
+    <sheet name="Notifications" sheetId="21" r:id="rId3"/>
+    <sheet name="KNH" sheetId="1" r:id="rId4"/>
+    <sheet name="KNH-summary" sheetId="11" r:id="rId5"/>
+    <sheet name="KNH-candida" sheetId="12" r:id="rId6"/>
+    <sheet name="TNH" sheetId="2" r:id="rId7"/>
+    <sheet name="TNH-candida" sheetId="14" r:id="rId8"/>
+    <sheet name="TNH-summary" sheetId="13" r:id="rId9"/>
+    <sheet name="CGTRH" sheetId="3" r:id="rId10"/>
+    <sheet name="CGTRH-summary" sheetId="20" r:id="rId11"/>
+    <sheet name="JOOTRH" sheetId="4" r:id="rId12"/>
+    <sheet name="JOOTRH-summary" sheetId="19" r:id="rId13"/>
+    <sheet name="Machakos level 5" sheetId="5" r:id="rId14"/>
+    <sheet name="Machakos-summary" sheetId="18" r:id="rId15"/>
+    <sheet name="MPShah" sheetId="6" r:id="rId16"/>
+    <sheet name="MP-SHAH-summary" sheetId="16" r:id="rId17"/>
+    <sheet name="MP-SHAH-candida" sheetId="17" r:id="rId18"/>
+    <sheet name="KUTRRH" sheetId="7" r:id="rId19"/>
+    <sheet name="AKUH" sheetId="8" r:id="rId20"/>
+    <sheet name="CVC-TIPS" sheetId="9" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="264">
   <si>
     <t>Month</t>
   </si>
@@ -719,12 +720,6 @@
     <t>CGTRH</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
@@ -819,6 +814,24 @@
   </si>
   <si>
     <t>Micafungin,Caspofungin,Amphotericin B,flucytosine</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Vitek Machine under repair</t>
+  </si>
+  <si>
+    <t>Sample shipped to TNH for confirmation</t>
+  </si>
+  <si>
+    <t>Candida Auris - 0</t>
+  </si>
+  <si>
+    <t>Candida Auris - 0, Candida Tropicalis - 1</t>
   </si>
 </sst>
 </file>
@@ -829,7 +842,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -940,6 +953,11 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1252,15 +1270,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1306,6 +1315,15 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,19 +1554,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
-      </c>
-      <c r="D1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1638,7 +1656,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>54</v>
@@ -1650,7 +1668,7 @@
         <v>-1.2637799999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1683,6 +1701,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32250821-505C-4CAC-A2E7-97C70CE2EB44}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1779,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1884,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D20E43D-D167-4AC0-98E5-A79F2B7437B1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1981,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2059,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3504ACFA-2AA2-4D5A-8D63-40F24A3E56CA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2156,7 +2254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2358,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F1F51-CED4-41F2-82CD-A602113284D3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2383,7 +2481,7 @@
         <v>210</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
         <v>214</v>
@@ -2499,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C94C8D9-CF31-406E-BCF2-7FF494C71C7A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2558,14 +2656,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2706,7 +2806,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2786,109 +2962,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2916,475 +2997,475 @@
     <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29.4" thickBot="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:28" ht="43.8" thickBot="1">
+      <c r="A1" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="71" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
     </row>
     <row r="2" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="73">
         <v>1000041524</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="73">
         <v>4</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="74">
         <v>45445</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="74">
+        <v>45325</v>
+      </c>
+      <c r="M2" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="74">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="13.8" thickBot="1">
+      <c r="A3" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1000762907</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="73">
+        <v>1</v>
+      </c>
+      <c r="I3" s="74">
+        <v>45597</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="L2" s="79">
+      <c r="L3" s="74">
         <v>45325</v>
       </c>
-      <c r="M2" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="77" t="s">
+      <c r="M3" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="O3" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="P3" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q3" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77" t="s">
+    </row>
+    <row r="4" spans="1:28" ht="27" thickBot="1">
+      <c r="A4" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="73">
+        <v>10212423</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="73">
+        <v>5</v>
+      </c>
+      <c r="I4" s="74">
+        <v>45598</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="74">
+        <v>45356</v>
+      </c>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="13.8" thickBot="1">
+      <c r="A5" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="73">
+        <v>10354355</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="73">
+        <v>6</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="74">
+        <v>45356</v>
+      </c>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="79">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A3" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="77" t="s">
+      <c r="T5" s="73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="27" thickBot="1">
+      <c r="A6" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="78">
-        <v>1000762907</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="78">
-        <v>1</v>
-      </c>
-      <c r="I3" s="79">
-        <v>45597</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="L3" s="79">
-        <v>45325</v>
-      </c>
-      <c r="M3" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A4" s="77" t="s">
+      <c r="F6" s="73">
+        <v>10557413</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="73">
+        <v>5</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="74">
+        <v>45327</v>
+      </c>
+      <c r="L6" s="74">
+        <v>45417</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="T6" s="72"/>
+    </row>
+    <row r="7" spans="1:28" ht="27" thickBot="1">
+      <c r="A7" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="77" t="s">
+      <c r="B7" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="78">
-        <v>10212423</v>
-      </c>
-      <c r="G4" s="77" t="s">
+      <c r="F7" s="73">
+        <v>10428007</v>
+      </c>
+      <c r="G7" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H7" s="73">
         <v>5</v>
       </c>
-      <c r="I4" s="79">
-        <v>45598</v>
-      </c>
-      <c r="J4" s="77" t="s">
+      <c r="I7" s="74">
+        <v>45441</v>
+      </c>
+      <c r="J7" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q4" s="79">
-        <v>45356</v>
-      </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="K7" s="74">
+        <v>45453</v>
+      </c>
+      <c r="L7" s="74">
+        <v>45459</v>
+      </c>
+      <c r="M7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="T7" s="72"/>
+    </row>
+    <row r="8" spans="1:28" ht="13.8" thickBot="1">
+      <c r="A8" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="78">
-        <v>10354355</v>
-      </c>
-      <c r="G5" s="77" t="s">
+      <c r="B8" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="76">
+        <v>10428007</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="78">
-        <v>6</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="77" t="s">
+      <c r="H8" s="76">
+        <v>5</v>
+      </c>
+      <c r="I8" s="77">
+        <v>45441</v>
+      </c>
+      <c r="J8" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="M5" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="79">
-        <v>45356</v>
-      </c>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A6" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="78">
-        <v>10557413</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="H6" s="78">
-        <v>5</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="79">
-        <v>45327</v>
-      </c>
-      <c r="L6" s="79">
-        <v>45417</v>
-      </c>
-      <c r="M6" s="77" t="s">
+      <c r="K8" s="77">
+        <v>45453</v>
+      </c>
+      <c r="L8" s="77">
+        <v>45459</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="N6" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="O6" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="T6" s="77"/>
-    </row>
-    <row r="7" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A7" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="78">
-        <v>10428007</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="78">
-        <v>5</v>
-      </c>
-      <c r="I7" s="79">
-        <v>45441</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="79">
-        <v>45453</v>
-      </c>
-      <c r="L7" s="79">
-        <v>45459</v>
-      </c>
-      <c r="M7" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="O7" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="T7" s="77"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A8" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="81">
-        <v>10428007</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="81">
-        <v>5</v>
-      </c>
-      <c r="I8" s="82">
-        <v>45441</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="82">
-        <v>45453</v>
-      </c>
-      <c r="L8" s="82">
-        <v>45459</v>
-      </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="T8" s="77"/>
+      <c r="T8" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3395,6 +3476,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1747C20-37FE-4874-B4ED-3BFE4D5DB620}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3460,15 +3584,15 @@
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3510,7 +3634,7 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="64"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3668,7 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="64"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
@@ -3578,7 +3702,7 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="64"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
@@ -3612,7 +3736,7 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="64"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
@@ -3646,7 +3770,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3682,7 +3806,7 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="64"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="11" t="s">
         <v>55</v>
       </c>
@@ -3752,7 +3876,7 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="81" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3788,7 +3912,7 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="64"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
@@ -7820,7 +7944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6E28F-FC04-49B2-83C9-1E88376F113E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -8004,7 +8128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E6D978-5361-455B-9648-CC9751D4AA66}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -8063,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8150,7 +8274,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="13.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="81" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -8209,7 +8333,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="13.2">
-      <c r="A3" s="64"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
@@ -8266,7 +8390,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="13.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="81" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -8325,7 +8449,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="11" t="s">
         <v>107</v>
       </c>
@@ -8382,7 +8506,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="13.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>111</v>
       </c>
@@ -8439,7 +8563,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="13.2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="81" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -8498,7 +8622,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="13.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="11" t="s">
         <v>115</v>
       </c>
@@ -8555,7 +8679,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="13.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="82" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -8624,7 +8748,7 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:32" ht="13.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="27" t="s">
         <v>125</v>
       </c>
@@ -8694,7 +8818,7 @@
       <c r="AF10" s="27"/>
     </row>
     <row r="11" spans="1:32" ht="13.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="33" t="s">
         <v>125</v>
       </c>
@@ -8764,7 +8888,7 @@
       <c r="AF11" s="33"/>
     </row>
     <row r="12" spans="1:32" ht="13.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="38" t="s">
         <v>125</v>
       </c>
@@ -18081,7 +18205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70568F-8036-4DFA-BB63-2ECD11B5985F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -18140,7 +18264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541746E-CC5A-4B4A-9CCB-391BD8B560C2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -18320,84 +18444,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/candidemia-data.xlsx
+++ b/data/candidemia-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\WORK\CEMA\MAP-AMR\Dashboard\appdir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2699AD37-D75D-4E44-A6D6-4E08EBF885EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017E1ED-68F6-42BD-8482-7F7401F6A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="2580" windowWidth="17280" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10500" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="10" r:id="rId1"/>
@@ -2810,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A2466-CCA8-4D4D-B4E2-187492278D64}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2969,8 +2969,8 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2997,7 +2997,7 @@
     <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.8" thickBot="1">
+    <row r="1" spans="1:28" ht="29.4" thickBot="1">
       <c r="A1" s="63" t="s">
         <v>188</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="27" thickBot="1">
+    <row r="4" spans="1:28" ht="13.8" thickBot="1">
       <c r="A4" s="72" t="s">
         <v>199</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="27" thickBot="1">
+    <row r="6" spans="1:28" ht="13.8" thickBot="1">
       <c r="A6" s="72" t="s">
         <v>199</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="T6" s="72"/>
     </row>
-    <row r="7" spans="1:28" ht="27" thickBot="1">
+    <row r="7" spans="1:28" ht="13.8" thickBot="1">
       <c r="A7" s="72" t="s">
         <v>199</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="T7" s="72"/>
     </row>
     <row r="8" spans="1:28" ht="13.8" thickBot="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="72" t="s">
         <v>199</v>
       </c>
       <c r="B8" s="75" t="s">
